--- a/lolData.xlsx
+++ b/lolData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
         </is>
       </c>
     </row>
@@ -454,10 +459,11 @@
           <t>OC1_620737042</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2181</v>
       </c>
     </row>
     <row r="3">
@@ -469,10 +475,11 @@
           <t>OC1_615185332</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2090</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +491,11 @@
           <t>OC1_615179781</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1576</v>
       </c>
     </row>
     <row r="5">
@@ -499,10 +507,11 @@
           <t>OC1_615099142</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1339</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +523,11 @@
           <t>OC1_615091752</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1959</v>
       </c>
     </row>
   </sheetData>

--- a/lolData.xlsx
+++ b/lolData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,26 @@
           <t>Duration</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Assists</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Damage Dealt to Champions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -465,6 +485,18 @@
       <c r="D2" t="n">
         <v>2181</v>
       </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>37583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,6 +512,18 @@
       </c>
       <c r="D3" t="n">
         <v>2090</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25257</v>
       </c>
     </row>
     <row r="4">
@@ -497,6 +541,18 @@
       <c r="D4" t="n">
         <v>1576</v>
       </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18947</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -513,6 +569,18 @@
       <c r="D5" t="n">
         <v>1339</v>
       </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11381</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -528,6 +596,4274 @@
       </c>
       <c r="D6" t="n">
         <v>1959</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>27497</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OC1_615089004</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OC1_614954504</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2152</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15989</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OC1_614948331</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21679</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OC1_614904819</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2354</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OC1_614752807</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OC1_614730553</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2262</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24528</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OC1_614732029</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1484</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10746</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OC1_614725182</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1960</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22042</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OC1_614658014</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2053</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>62010</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OC1_614648996</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1367</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7191</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>OC1_614590413</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2948</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11</v>
+      </c>
+      <c r="H17" t="n">
+        <v>42229</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OC1_614583936</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2309</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>OC1_614566402</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OC1_614277809</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1597</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>22971</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>OC1_614140161</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1530</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>OC1_614134056</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1716</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>25689</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>OC1_614129085</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1447</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>OC1_614122083</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20604</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>OC1_614089219</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11381</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>OC1_614073533</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2373</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>18720</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>OC1_614067296</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2422</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>36086</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>OC1_614056955</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10431</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OC1_614050965</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2605</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="n">
+        <v>26398</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>OC1_613924323</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>16</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23376</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>OC1_613903829</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20626</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OC1_613900113</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>42025</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OC1_613898655</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>967</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10612</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OC1_613841127</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>22958</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>OC1_613831904</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>26419</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OC1_613827801</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1667</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>26471</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OC1_613823048</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>26057</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OC1_613813899</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2092</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25074</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OC1_613794838</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2307</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" t="n">
+        <v>30060</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>OC1_613794100</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1758</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>21075</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OC1_613770319</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2210</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>34021</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>OC1_613762715</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>34192</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OC1_613695675</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2708</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" t="n">
+        <v>23034</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>OC1_613689746</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9</v>
+      </c>
+      <c r="H44" t="n">
+        <v>21271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>OC1_613676030</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1589</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>17894</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>OC1_613623510</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2932</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12</v>
+      </c>
+      <c r="H46" t="n">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>OC1_613620168</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1552</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>16405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>OC1_613199162</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>12199</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>OC1_613194394</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>13391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>OC1_613166368</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2305</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>13</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9</v>
+      </c>
+      <c r="H50" t="n">
+        <v>29136</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>OC1_613160673</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>966</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7243</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>OC1_613024823</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>24535</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>OC1_612974984</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1465</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>20944</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>OC1_612974056</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>23143</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>OC1_612961931</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1712</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>27095</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>OC1_612960461</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1539</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13865</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>OC1_612876388</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15703</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>OC1_612867599</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2188</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>39093</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>OC1_612847631</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>10</v>
+      </c>
+      <c r="H59" t="n">
+        <v>18682</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>OC1_612812645</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2379</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>13</v>
+      </c>
+      <c r="H60" t="n">
+        <v>30825</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>OC1_612809305</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2161</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>OC1_612722752</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1431</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>17114</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>OC1_612703967</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1893</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>25063</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>OC1_612685641</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2382</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8</v>
+      </c>
+      <c r="H64" t="n">
+        <v>25636</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>OC1_612679402</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1882</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
+      <c r="G65" t="n">
+        <v>11</v>
+      </c>
+      <c r="H65" t="n">
+        <v>35242</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>OC1_612668543</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2589</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11</v>
+      </c>
+      <c r="F66" t="n">
+        <v>18</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>50781</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>OC1_612663676</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>22184</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>OC1_612564544</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1483</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7668</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>OC1_612561437</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>OC1_612553708</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1211</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>11864</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>OC1_612516662</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1831</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19530</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>OC1_612500398</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>14</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>20334</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>OC1_612495991</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>106</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>OC1_612496004</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1899</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>20286</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>OC1_612490404</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1410</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>18499</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>OC1_612350924</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1841</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="n">
+        <v>22697</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>OC1_612332576</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1521</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8</v>
+      </c>
+      <c r="H77" t="n">
+        <v>9273</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>OC1_612329202</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1542</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>21733</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>OC1_612155086</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7</v>
+      </c>
+      <c r="H79" t="n">
+        <v>13821</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>OC1_612148541</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1437</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>20256</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>OC1_612140876</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>19690</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>OC1_612138424</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>9</v>
+      </c>
+      <c r="H82" t="n">
+        <v>11174</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>OC1_612039181</t>
+        </is>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2090</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>32232</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>OC1_612031958</t>
+        </is>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1719</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8</v>
+      </c>
+      <c r="H84" t="n">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>OC1_611967177</t>
+        </is>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>944</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>OC1_611961540</t>
+        </is>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1444</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>13570</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>OC1_611957834</t>
+        </is>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30763</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>OC1_611869534</t>
+        </is>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1533</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>18759</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>OC1_611862591</t>
+        </is>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>8</v>
+      </c>
+      <c r="H89" t="n">
+        <v>20941</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>OC1_611808176</t>
+        </is>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10</v>
+      </c>
+      <c r="H90" t="n">
+        <v>15942</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>OC1_611801315</t>
+        </is>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2269</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11</v>
+      </c>
+      <c r="G91" t="n">
+        <v>13</v>
+      </c>
+      <c r="H91" t="n">
+        <v>42315</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>OC1_611397095</t>
+        </is>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2053</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>18876</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>OC1_611333511</t>
+        </is>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2284</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>17</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7</v>
+      </c>
+      <c r="H93" t="n">
+        <v>29661</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>OC1_611325545</t>
+        </is>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2281</v>
+      </c>
+      <c r="E94" t="n">
+        <v>13</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>37272</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>OC1_611317981</t>
+        </is>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>974</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6764</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>OC1_611235349</t>
+        </is>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1583</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>21806</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>OC1_611233223</t>
+        </is>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1676</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>15842</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>OC1_611217240</t>
+        </is>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2066</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10</v>
+      </c>
+      <c r="H98" t="n">
+        <v>32009</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>OC1_611200750</t>
+        </is>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2079</v>
+      </c>
+      <c r="E99" t="n">
+        <v>11</v>
+      </c>
+      <c r="F99" t="n">
+        <v>11</v>
+      </c>
+      <c r="G99" t="n">
+        <v>10</v>
+      </c>
+      <c r="H99" t="n">
+        <v>31212</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>OC1_611185453</t>
+        </is>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1767</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11</v>
+      </c>
+      <c r="G100" t="n">
+        <v>8</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21794</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>OC1_610897631</t>
+        </is>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2092</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>8</v>
+      </c>
+      <c r="H101" t="n">
+        <v>23072</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>OC1_610893037</t>
+        </is>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1126</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>OC1_610848232</t>
+        </is>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1531</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>11321</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>OC1_610838528</t>
+        </is>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>9</v>
+      </c>
+      <c r="H104" t="n">
+        <v>16661</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>OC1_610830296</t>
+        </is>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2114</v>
+      </c>
+      <c r="E105" t="n">
+        <v>16</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>OC1_610821378</t>
+        </is>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1708</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>17292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>OC1_610817529</t>
+        </is>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1895</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11</v>
+      </c>
+      <c r="G107" t="n">
+        <v>8</v>
+      </c>
+      <c r="H107" t="n">
+        <v>24668</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>OC1_610812550</t>
+        </is>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>18703</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>OC1_610808052</t>
+        </is>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>19043</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>OC1_610714795</t>
+        </is>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2061</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9</v>
+      </c>
+      <c r="H110" t="n">
+        <v>18814</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>OC1_610684946</t>
+        </is>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2316</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="n">
+        <v>10</v>
+      </c>
+      <c r="H111" t="n">
+        <v>26734</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>OC1_610677436</t>
+        </is>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2606</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="n">
+        <v>8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>35784</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>OC1_610668687</t>
+        </is>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1841</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9</v>
+      </c>
+      <c r="H113" t="n">
+        <v>23138</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>OC1_610669016</t>
+        </is>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2219</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="n">
+        <v>8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>19908</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>OC1_610663866</t>
+        </is>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>984</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>OC1_610532857</t>
+        </is>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1833</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>14088</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>OC1_610532074</t>
+        </is>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1663</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="n">
+        <v>22601</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>OC1_610523686</t>
+        </is>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1406</v>
+      </c>
+      <c r="E118" t="n">
+        <v>16</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>23544</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>OC1_610516645</t>
+        </is>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2644</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>OC1_610515145</t>
+        </is>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1684</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>8</v>
+      </c>
+      <c r="H120" t="n">
+        <v>19905</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>OC1_610350060</t>
+        </is>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1406</v>
+      </c>
+      <c r="E121" t="n">
+        <v>8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="n">
+        <v>19684</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>OC1_610178379</t>
+        </is>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2184</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="n">
+        <v>11</v>
+      </c>
+      <c r="H122" t="n">
+        <v>21308</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>OC1_610175022</t>
+        </is>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2090</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7</v>
+      </c>
+      <c r="H123" t="n">
+        <v>27569</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>OC1_610165955</t>
+        </is>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>14369</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>OC1_610161284</t>
+        </is>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2374</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>9</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9</v>
+      </c>
+      <c r="H125" t="n">
+        <v>30391</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>OC1_610155661</t>
+        </is>
+      </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8</v>
+      </c>
+      <c r="H126" t="n">
+        <v>13984</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>OC1_610154274</t>
+        </is>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>13</v>
+      </c>
+      <c r="H127" t="n">
+        <v>21594</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>OC1_610079274</t>
+        </is>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>21344</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>OC1_610069885</t>
+        </is>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1703</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4</v>
+      </c>
+      <c r="G129" t="n">
+        <v>6</v>
+      </c>
+      <c r="H129" t="n">
+        <v>16808</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>OC1_609909253</t>
+        </is>
+      </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15</v>
+      </c>
+      <c r="H130" t="n">
+        <v>20714</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>OC1_609900513</t>
+        </is>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1933</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>8</v>
+      </c>
+      <c r="H131" t="n">
+        <v>35397</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>OC1_609895091</t>
+        </is>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1874</v>
+      </c>
+      <c r="E132" t="n">
+        <v>8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
+      <c r="H132" t="n">
+        <v>18840</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>OC1_609856781</t>
+        </is>
+      </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1405</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>14821</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>OC1_609847455</t>
+        </is>
+      </c>
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>8</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>OC1_609841606</t>
+        </is>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1597</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>12</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H135" t="n">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>OC1_609667518</t>
+        </is>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>921</v>
+      </c>
+      <c r="E136" t="n">
+        <v>8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>14227</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>OC1_609646903</t>
+        </is>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>7</v>
+      </c>
+      <c r="H137" t="n">
+        <v>16606</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>OC1_609646170</t>
+        </is>
+      </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1563</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6</v>
+      </c>
+      <c r="H138" t="n">
+        <v>19892</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>OC1_609642056</t>
+        </is>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1653</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6</v>
+      </c>
+      <c r="G139" t="n">
+        <v>7</v>
+      </c>
+      <c r="H139" t="n">
+        <v>14646</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>OC1_609636402</t>
+        </is>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1516</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4</v>
+      </c>
+      <c r="G140" t="n">
+        <v>7</v>
+      </c>
+      <c r="H140" t="n">
+        <v>18799</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>OC1_609630217</t>
+        </is>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2346</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>22</v>
+      </c>
+      <c r="G141" t="n">
+        <v>8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>OC1_609527530</t>
+        </is>
+      </c>
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2358</v>
+      </c>
+      <c r="E142" t="n">
+        <v>17</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>55897</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>OC1_609509580</t>
+        </is>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E143" t="n">
+        <v>14</v>
+      </c>
+      <c r="F143" t="n">
+        <v>12</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>39762</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>OC1_609483238</t>
+        </is>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2345</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>23</v>
+      </c>
+      <c r="G144" t="n">
+        <v>8</v>
+      </c>
+      <c r="H144" t="n">
+        <v>39839</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>OC1_609477249</t>
+        </is>
+      </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1722</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>8</v>
+      </c>
+      <c r="H145" t="n">
+        <v>17777</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>OC1_609465222</t>
+        </is>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1410</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>24433</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>OC1_609461241</t>
+        </is>
+      </c>
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2568</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8</v>
+      </c>
+      <c r="G147" t="n">
+        <v>11</v>
+      </c>
+      <c r="H147" t="n">
+        <v>34590</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>OC1_608715755</t>
+        </is>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2233</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19</v>
+      </c>
+      <c r="G148" t="n">
+        <v>10</v>
+      </c>
+      <c r="H148" t="n">
+        <v>33669</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>OC1_608641108</t>
+        </is>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2274</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>10</v>
+      </c>
+      <c r="H149" t="n">
+        <v>34974</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>OC1_608634148</t>
+        </is>
+      </c>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E150" t="n">
+        <v>8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4</v>
+      </c>
+      <c r="H150" t="n">
+        <v>27138</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>OC1_608324354</t>
+        </is>
+      </c>
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2140</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5</v>
+      </c>
+      <c r="H151" t="n">
+        <v>18927</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>OC1_608310849</t>
+        </is>
+      </c>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2348</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10</v>
+      </c>
+      <c r="G152" t="n">
+        <v>11</v>
+      </c>
+      <c r="H152" t="n">
+        <v>34737</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>OC1_608257266</t>
+        </is>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2085</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7</v>
+      </c>
+      <c r="H153" t="n">
+        <v>26688</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>OC1_608254040</t>
+        </is>
+      </c>
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2129</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>37574</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>OC1_608244269</t>
+        </is>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2753</v>
+      </c>
+      <c r="E155" t="n">
+        <v>10</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11</v>
+      </c>
+      <c r="G155" t="n">
+        <v>6</v>
+      </c>
+      <c r="H155" t="n">
+        <v>53529</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>OC1_608105327</t>
+        </is>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2338</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="n">
+        <v>8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>31142</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>OC1_607986147</t>
+        </is>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1428</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7</v>
+      </c>
+      <c r="H157" t="n">
+        <v>17134</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>OC1_607957352</t>
+        </is>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1410</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>16642</v>
       </c>
     </row>
   </sheetData>
